--- a/excercises/excercises/ex020.IPR.xlsx
+++ b/excercises/excercises/ex020.IPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB23EC4-0EFC-48E7-B728-486B88723C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96919B-1154-4711-BAAC-A69CE891FF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -2372,9 +2372,9 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="IPR_p_wf_atma"/>
       <definedName name="IPR_pi_sm3dayatm"/>
-      <definedName name="IPR_q_liq_sm3day"/>
+      <definedName name="IPR_pwf_atma"/>
+      <definedName name="IPR_qliq_sm3day"/>
       <definedName name="MF_gas_fraction_d"/>
       <definedName name="MF_q_mix_rc_m3day"/>
       <definedName name="PVT_encode_string"/>
@@ -2690,25 +2690,25 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="22" max="32" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2720,17 +2720,17 @@
         <v>7.10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2943,12 +2943,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2971,24 +2971,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,0,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,0,fw_,Pb_)</f>
         <v>198.37494909202309</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3023,17 +3023,17 @@
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3050,16 +3050,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="14">
         <v>0</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D40,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
       <c r="G40" s="9">
@@ -3071,17 +3071,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="14">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>9.9187474546011547</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
         <v>240.08125254539885</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D41,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D41,fw_,Pb_)</f>
         <v>9.9187474546011458</v>
       </c>
       <c r="G41" s="9">
@@ -3093,17 +3093,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="14">
         <f t="shared" si="0"/>
         <v>19.837494909202309</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
         <v>230.16250509079768</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D42,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D42,fw_,Pb_)</f>
         <v>19.83749490920232</v>
       </c>
       <c r="G42" s="9">
@@ -3115,17 +3115,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="14">
         <f t="shared" si="0"/>
         <v>29.756242363803466</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
         <v>220.24375763619653</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D43,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D43,fw_,Pb_)</f>
         <v>29.756242363803466</v>
       </c>
       <c r="G43" s="9">
@@ -3137,17 +3137,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="14">
         <f t="shared" si="0"/>
         <v>39.674989818404619</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
         <v>210.32501018159539</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D44,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D44,fw_,Pb_)</f>
         <v>39.674989818404612</v>
       </c>
       <c r="G44" s="9">
@@ -3159,17 +3159,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="14">
         <f t="shared" si="0"/>
         <v>49.593737273005772</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
         <v>200.40626272699421</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D45,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D45,fw_,Pb_)</f>
         <v>49.593737273005786</v>
       </c>
       <c r="G45" s="9">
@@ -3181,17 +3181,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="14">
         <f t="shared" si="0"/>
         <v>59.512484727606925</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
         <v>190.48751527239307</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D46,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D46,fw_,Pb_)</f>
         <v>59.512484727606932</v>
       </c>
       <c r="G46" s="9">
@@ -3203,17 +3203,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="14">
         <f t="shared" si="0"/>
         <v>69.431232182208078</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
         <v>180.56876781779192</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D47,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D47,fw_,Pb_)</f>
         <v>69.431232182208078</v>
       </c>
       <c r="G47" s="9">
@@ -3225,17 +3225,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="14">
         <f t="shared" si="0"/>
         <v>79.349979636809238</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
         <v>170.65002036319078</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D48,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D48,fw_,Pb_)</f>
         <v>79.349979636809223</v>
       </c>
       <c r="G48" s="9">
@@ -3247,17 +3247,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="14">
         <f t="shared" si="0"/>
         <v>89.268727091410398</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
         <v>160.7312729085896</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D49,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D49,fw_,Pb_)</f>
         <v>89.268727091410398</v>
       </c>
       <c r="G49" s="9">
@@ -3269,17 +3269,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="14">
         <f t="shared" si="0"/>
         <v>99.187474546011558</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
         <v>150.81252545398843</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D50,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D50,fw_,Pb_)</f>
         <v>99.187474546011572</v>
       </c>
       <c r="G50" s="9">
@@ -3291,17 +3291,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="14">
         <f t="shared" si="0"/>
         <v>109.10622200061272</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
         <v>140.89377799938728</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D51,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D51,fw_,Pb_)</f>
         <v>109.10622200061272</v>
       </c>
       <c r="G51" s="9">
@@ -3313,17 +3313,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="14">
         <f t="shared" si="0"/>
         <v>119.02496945521388</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
         <v>130.97503054478614</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D52,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D52,fw_,Pb_)</f>
         <v>119.02496945521386</v>
       </c>
       <c r="G52" s="9">
@@ -3335,17 +3335,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="14">
         <f t="shared" si="0"/>
         <v>128.94371690981504</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
         <v>121.05628309018496</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D53,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D53,fw_,Pb_)</f>
         <v>128.94371690981504</v>
       </c>
       <c r="G53" s="9">
@@ -3357,17 +3357,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="14">
         <f t="shared" si="0"/>
         <v>138.86246436441618</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
         <v>110.89439013405214</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
         <v>138.86246436441624</v>
       </c>
       <c r="G54" s="9">
@@ -3379,17 +3379,17 @@
         <v>5.4969555207744616E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="14">
         <f t="shared" si="0"/>
         <v>148.78121181901733</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
         <v>100.02727433529388</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
         <v>148.78121181901744</v>
       </c>
       <c r="G55" s="9">
@@ -3401,17 +3401,17 @@
         <v>0.1198770739868955</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="14">
         <f t="shared" si="0"/>
         <v>158.69995927361848</v>
       </c>
       <c r="D56" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
         <v>88.220870330268156</v>
       </c>
       <c r="E56" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
         <v>158.69995927361836</v>
       </c>
       <c r="G56" s="9">
@@ -3423,17 +3423,17 @@
         <v>0.194852955458755</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="14">
         <f t="shared" si="0"/>
         <v>168.61870672821962</v>
       </c>
       <c r="D57" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
         <v>75.082562520816197</v>
       </c>
       <c r="E57" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
         <v>168.61870672821959</v>
       </c>
       <c r="G57" s="9">
@@ -3445,17 +3445,17 @@
         <v>0.28468458401074792</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="14">
         <f t="shared" si="0"/>
         <v>178.53745418282077</v>
       </c>
       <c r="D58" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
         <v>59.833402917957898</v>
       </c>
       <c r="E58" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
         <v>178.53745418282082</v>
       </c>
       <c r="G58" s="9">
@@ -3467,17 +3467,17 @@
         <v>0.39896468138768959</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="14">
         <f t="shared" si="0"/>
         <v>188.45620163742191</v>
       </c>
       <c r="D59" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
         <v>40.383204097085397</v>
       </c>
       <c r="E59" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
         <v>188.45620163742174</v>
       </c>
       <c r="G59" s="9">
@@ -3489,17 +3489,17 @@
         <v>0.56366548959158924</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="14">
         <f t="shared" si="0"/>
         <v>198.37494909202306</v>
       </c>
       <c r="D60" s="9">
-        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
         <v>2.8181536965155018E-13</v>
       </c>
       <c r="E60" s="9">
-        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>
         <v>198.37494909202306</v>
       </c>
       <c r="G60" s="9"/>
